--- a/data/3FEB_25_26_j1/assists_25_26_3FEB.xlsx
+++ b/data/3FEB_25_26_j1/assists_25_26_3FEB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4628,6 +4628,831 @@
         <v>1</v>
       </c>
     </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>S. GUEYE</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>O. BALSELLS PLAZA</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>S. GUEYE</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>J. ABRIL RAMIRO</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>J. ABRIL RAMIRO</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>S. GUEYE</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>A. GASE SECO</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>K. SKUTYELNIK</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>A. GASE SECO</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>S. GUEYE</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>A. GASE SECO</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>E. LLACER SIMLAT</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>E. LLACER SIMLAT</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>S. GUEYE</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>F. ESPINOSA</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>D. VAL GUTIERREZ</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>A. JIMÉNEZ BARRETO</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>O. BALSELLS PLAZA</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>D. VAL GUTIERREZ</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>R. DEUS VERA</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>O. BALSELLS PLAZA</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>J. ABRIL RAMIRO</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>F. ESPINOSA</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>L. RODRIGUEZ SANCHEZ</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>O. BALSELLS PLAZA</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>J. LARREA IBARBURU</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>O. BALSELLS PLAZA</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>D. VIERA LOPEZ</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>R. DEUS VERA</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>D. VAL GUTIERREZ</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>D. ROPERO MORA</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>L. RODRIGUEZ SANCHEZ</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>P. BARCALA BELTRAN</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>D. VAL GUTIERREZ</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>B. BAILLO HERNÁNDEZ</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>D. VAL GUTIERREZ</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>K. SKUTYELNIK</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>S. GUEYE</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>L. RODRIGUEZ SANCHEZ</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>D. VAL GUTIERREZ</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>D. VAL GUTIERREZ</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>L. RODRIGUEZ SANCHEZ</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>J. ABRIL RAMIRO</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>J. LARREA IBARBURU</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>L. RODRIGUEZ SANCHEZ</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>F. ESPINOSA</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>E. LLACER SIMLAT</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>A. JIMÉNEZ BARRETO</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>S. VAL GUTIERREZ</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>R. DEUS VERA</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
